--- a/messages.xlsx
+++ b/messages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>user</t>
   </si>
@@ -22,25 +22,16 @@
     <t>message</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>小明</t>
-  </si>
-  <si>
-    <t>小華</t>
-  </si>
-  <si>
-    <t>這週課好累！</t>
-  </si>
-  <si>
-    <t>加油！</t>
-  </si>
-  <si>
-    <t>2025-07-17 10:00</t>
-  </si>
-  <si>
-    <t>2025-07-17 10:05</t>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>老師A</t>
+  </si>
+  <si>
+    <t>今天辛苦了！</t>
+  </si>
+  <si>
+    <t>2025-07-22 15:00</t>
   </si>
 </sst>
 </file>
@@ -398,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,21 +411,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/messages.xlsx
+++ b/messages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>user</t>
   </si>
@@ -22,16 +22,25 @@
     <t>message</t>
   </si>
   <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>老師A</t>
-  </si>
-  <si>
-    <t>今天辛苦了！</t>
-  </si>
-  <si>
-    <t>2025-07-22 15:00</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>小A</t>
+  </si>
+  <si>
+    <t>小B</t>
+  </si>
+  <si>
+    <t>今天排班很順利</t>
+  </si>
+  <si>
+    <t>建議明天增加會議時間</t>
+  </si>
+  <si>
+    <t>2025-07-17 14:00</t>
+  </si>
+  <si>
+    <t>2025-07-17 15:30</t>
   </si>
 </sst>
 </file>
@@ -389,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,10 +420,21 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
